--- a/Shreyang bookmyshow bug report.xlsx
+++ b/Shreyang bookmyshow bug report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>project name</t>
   </si>
@@ -39,53 +39,127 @@
     <t>Shreyang solanki</t>
   </si>
   <si>
-    <t>bug id</t>
-  </si>
-  <si>
-    <t>bug title</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>severity</t>
-  </si>
-  <si>
     <t>Environment</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Steps to reproduce</t>
-  </si>
-  <si>
-    <t>header logo is not clickable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) go to website by browser and click on header logo of bookmyshow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">header logo </t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Sumamry</t>
+  </si>
+  <si>
+    <t>Detected By</t>
+  </si>
+  <si>
+    <t>Defect date</t>
+  </si>
+  <si>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Defect Type</t>
+  </si>
+  <si>
+    <t>Reproduce Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Acual Resut</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Defect _01</t>
+  </si>
+  <si>
+    <t>developer name</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Version 1.1</t>
+  </si>
+  <si>
+    <t>Sing up</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Defect_02</t>
+  </si>
+  <si>
+    <t>version 1.2</t>
+  </si>
+  <si>
+    <t>SHREYANG</t>
+  </si>
+  <si>
+    <t>CLICK ON LOGO BUT SIDE NOT WORKING</t>
+  </si>
+  <si>
+    <t>Full name:- 546548
+E-mail:- SHREYANG1232@gmail.com</t>
+  </si>
+  <si>
+    <t>CLICK ON HEND ICON BUT NOT CLICKABLE ON LOGO</t>
+  </si>
+  <si>
+    <t>CLICK ON LOGO AND HOME PAGE</t>
+  </si>
+  <si>
+    <t>Full name:- 546548
+E-mail:- 125111@gmail.com</t>
+  </si>
+  <si>
+    <t>SING UP FUNCTIONALITY NOT WORKING PROPER</t>
+  </si>
+  <si>
+    <t>DEVROPER NAME</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>WHEN THE NAME IS CORRECT AND THE EMAIL ID IS INCORRECT THE OTP GOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEN ENTERING EMAIL ID WRONGLY ,OTP SHOULD NOT OPEN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +175,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -118,26 +222,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +358,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,7 +475,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,110 +650,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:16" ht="15.75">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:16" ht="15.75">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>45327</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" spans="1:16" ht="63" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45414</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="8"/>
     </row>
+    <row r="9" spans="1:16" ht="61.9" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45414</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="61.9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -550,24 +865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
